--- a/biology/Médecine/Ronald_Reagan_UCLA_Medical_Center/Ronald_Reagan_UCLA_Medical_Center.xlsx
+++ b/biology/Médecine/Ronald_Reagan_UCLA_Medical_Center/Ronald_Reagan_UCLA_Medical_Center.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Ronald Reagan UCLA Medical Center est un hôpital situé dans le campus de l'université de Californie dans le quartier de Westwood à Los Angeles, en Californie. Fondé en 1955, il est considéré comme l'un des trois meilleurs hôpitaux des États-Unis. Il a été reconstruit et inauguré le 29 juin 2008.
-Il est nommé en l'honneur de Ronald Reagan, gouverneur de Californie de 1967 à 1975 et président des États-Unis de 1981 à 1989[1].
+Il est nommé en l'honneur de Ronald Reagan, gouverneur de Californie de 1967 à 1975 et président des États-Unis de 1981 à 1989.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Événements marquants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
